--- a/FA10_Script_ManuallyAddAssets_21C.xlsx
+++ b/FA10_Script_ManuallyAddAssets_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup_IGA_Master\UIAF_Selenium_IGA\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8C1C8-4ADD-496E-87F3-2D66C46B7F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE436A2D-4A57-4E54-B6A4-16E1D36ECFBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManuallyAddAsset" sheetId="30" r:id="rId1"/>
@@ -18,17 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$86</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ManuallyAddAsset!$A$1:$M$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ManuallyAddAsset!$A$1:$M$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="394">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -84,9 +81,6 @@
   </si>
   <si>
     <t>OBJECTTYPE</t>
-  </si>
-  <si>
-    <t>Browser</t>
   </si>
   <si>
     <t>STEP NO</t>
@@ -123,9 +117,6 @@
     <t>Element</t>
   </si>
   <si>
-    <t>Login Page</t>
-  </si>
-  <si>
     <t>Step 3</t>
   </si>
   <si>
@@ -144,42 +135,36 @@
     <t>Input</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>SetText</t>
   </si>
   <si>
-    <t>LaunchApplication</t>
-  </si>
-  <si>
     <t>Step 7</t>
   </si>
   <si>
+    <t>Explicit Wait</t>
+  </si>
+  <si>
     <t>ExplicitWaitType</t>
   </si>
   <si>
-    <t>60</t>
+    <t xml:space="preserve">Click on Tasks </t>
+  </si>
+  <si>
+    <t>Clicked on Tasks</t>
   </si>
   <si>
     <t>Tasks</t>
   </si>
   <si>
+    <t>Explicit wait for Home</t>
+  </si>
+  <si>
     <t>TasksPanelDiv</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>ConfirmBtn</t>
   </si>
   <si>
-    <t>CloseBrowser</t>
-  </si>
-  <si>
     <t>Step 13</t>
   </si>
   <si>
@@ -231,12 +216,6 @@
     <t>userid</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>pt1:_UIShome::icon</t>
-  </si>
-  <si>
     <t>XPath</t>
   </si>
   <si>
@@ -273,30 +252,36 @@
     <t>//button[@name='Confirm']</t>
   </si>
   <si>
-    <t>//a[@title='Navigator']</t>
-  </si>
-  <si>
     <t>MenuNavigator</t>
   </si>
   <si>
     <t>//div[@id='pt1:nv_pgl3']/div</t>
   </si>
   <si>
+    <t>Click on Navigator</t>
+  </si>
+  <si>
+    <t>Clicked on Navigator</t>
+  </si>
+  <si>
     <t>SendKey</t>
   </si>
   <si>
     <t>Search</t>
   </si>
   <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Waited</t>
+  </si>
+  <si>
     <t>//a[contains(@id,'UIScmil1u')]</t>
   </si>
   <si>
     <t>AssetInquiryLink</t>
   </si>
   <si>
-    <t>//a[text()='Asset Inquiry']</t>
-  </si>
-  <si>
     <t>Book</t>
   </si>
   <si>
@@ -342,6 +327,30 @@
     <t>AssetLink</t>
   </si>
   <si>
+    <t>Explicit wait for AssetLink</t>
+  </si>
+  <si>
+    <t>Explicit Wait for AssetLink</t>
+  </si>
+  <si>
+    <t>Click on AssetLink</t>
+  </si>
+  <si>
+    <t>Clicked on AssetLink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for Tasks </t>
+  </si>
+  <si>
+    <t>Waited for Tasks</t>
+  </si>
+  <si>
+    <t>Wait for TasksPanelDiv</t>
+  </si>
+  <si>
+    <t>Waited for TasksPanelDiv</t>
+  </si>
+  <si>
     <t>Assets Page</t>
   </si>
   <si>
@@ -351,12 +360,36 @@
     <t>//a[text()='Add Asset']</t>
   </si>
   <si>
+    <t xml:space="preserve">Wait for AddAssetLink </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on AddAssetLink </t>
+  </si>
+  <si>
+    <t>Clicked on AddAssetLink</t>
+  </si>
+  <si>
+    <t>Waited for AddAssetLink</t>
+  </si>
+  <si>
     <t>SelectBook</t>
   </si>
   <si>
     <t>//tr[td[label[text()='Book']]]/td[2]/select</t>
   </si>
   <si>
+    <t>Wait for SelectBook</t>
+  </si>
+  <si>
+    <t>Waited for SelectBook</t>
+  </si>
+  <si>
+    <t>Entered SelectBook</t>
+  </si>
+  <si>
+    <t>Enter SelectBook</t>
+  </si>
+  <si>
     <t>//tr[td[label[text()='Asset Type']]]/td[2]/select</t>
   </si>
   <si>
@@ -405,6 +438,51 @@
     <t>TAB</t>
   </si>
   <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Enter AssetType</t>
+  </si>
+  <si>
+    <t>Entered AssetType</t>
+  </si>
+  <si>
+    <t>Enter the Category</t>
+  </si>
+  <si>
+    <t>Category entered</t>
+  </si>
+  <si>
+    <t>Clicked on Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Description </t>
+  </si>
+  <si>
+    <t>Description entered</t>
+  </si>
+  <si>
+    <t>Enter the Description</t>
+  </si>
+  <si>
+    <t>Enter the Cost</t>
+  </si>
+  <si>
+    <t>Cost entered</t>
+  </si>
+  <si>
+    <t>Location entered</t>
+  </si>
+  <si>
+    <t>Enter the Location</t>
+  </si>
+  <si>
+    <t>Click NextBtn</t>
+  </si>
+  <si>
+    <t>Clicked NextBtn</t>
+  </si>
+  <si>
     <t>Manually Add Assets</t>
   </si>
   <si>
@@ -435,6 +513,9 @@
     <t>Add Assets Page</t>
   </si>
   <si>
+    <t>Enter the EnterAssetNumber</t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -447,6 +528,12 @@
     <t>//h2[text()=' Financial Details']</t>
   </si>
   <si>
+    <t>Enter the Comments</t>
+  </si>
+  <si>
+    <t>Comments entered</t>
+  </si>
+  <si>
     <t>SalvageValType</t>
   </si>
   <si>
@@ -459,6 +546,18 @@
     <t>//tr[td[label[text()='Salvage Value Percent']]]/td[2]/span/input</t>
   </si>
   <si>
+    <t>Enter SalvageValType</t>
+  </si>
+  <si>
+    <t>Entered SalvageValType</t>
+  </si>
+  <si>
+    <t>SalvageValPerctage entered</t>
+  </si>
+  <si>
+    <t>Enter the SalvageValPerctage</t>
+  </si>
+  <si>
     <t>EmployeeName</t>
   </si>
   <si>
@@ -477,27 +576,87 @@
     <t>//td[text()='Save']</t>
   </si>
   <si>
+    <t>Click on SaveDropDown</t>
+  </si>
+  <si>
+    <t>Clicked on SaveDropDown</t>
+  </si>
+  <si>
+    <t>Explicit wait for Save</t>
+  </si>
+  <si>
+    <t>Click on Save</t>
+  </si>
+  <si>
+    <t>Clicked on Save</t>
+  </si>
+  <si>
     <t>POPUPOK</t>
   </si>
   <si>
     <t>//button[contains(@id,'dialog5::ok')]</t>
   </si>
   <si>
+    <t>Explicit wait for POPUPOK</t>
+  </si>
+  <si>
+    <t>Clicked on POPUPOK</t>
+  </si>
+  <si>
+    <t>Click on POPUPOK</t>
+  </si>
+  <si>
     <t>SubmitBtn</t>
   </si>
   <si>
     <t>//a/span[text()='Sub']</t>
   </si>
   <si>
+    <t>Explicit wait for SubmitBtn</t>
+  </si>
+  <si>
+    <t>Click on SubmitBtn</t>
+  </si>
+  <si>
+    <t>Clicked on SubmitBtn</t>
+  </si>
+  <si>
     <t>AssetInquiryTab</t>
   </si>
   <si>
     <t>SearchAssetNum</t>
   </si>
   <si>
+    <t>Explicit wait for SearchAssetNum</t>
+  </si>
+  <si>
+    <t>SearchAssetNum entered</t>
+  </si>
+  <si>
+    <t>Enter the SearchAssetNum</t>
+  </si>
+  <si>
+    <t>Clicked on Search</t>
+  </si>
+  <si>
+    <t>Click on Search</t>
+  </si>
+  <si>
+    <t>Entered Book</t>
+  </si>
+  <si>
+    <t>Enter Book</t>
+  </si>
+  <si>
     <t>SearchedAsset</t>
   </si>
   <si>
+    <t>ExpenseAccount entered</t>
+  </si>
+  <si>
+    <t>Enter the ExpenseAccount</t>
+  </si>
+  <si>
     <t>Step 28</t>
   </si>
   <si>
@@ -618,9 +777,6 @@
     <t>//span[label[text()='Line Amount']]/input</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>SignInLink</t>
   </si>
   <si>
@@ -774,18 +930,9 @@
     <t>SerialNumber</t>
   </si>
   <si>
-    <t>//*[@id="pt1:_FOr1:1:_FOSritemNode_fixed_assets_additions:0:MAnt2:1:ap1:inputText3::content"]</t>
-  </si>
-  <si>
-    <t>//*[@id="pt1:_FOr1:1:_FOSritemNode_fixed_assets_additions:0:MAnt2:1:ap1:inputText5::content"]</t>
-  </si>
-  <si>
     <t>FixedAssetLink</t>
   </si>
   <si>
-    <t>//*[@id="itemNode_fixed_assets_additions_0"]</t>
-  </si>
-  <si>
     <t>Step 9</t>
   </si>
   <si>
@@ -834,6 +981,12 @@
     <t>Step 75</t>
   </si>
   <si>
+    <t>Verify Status</t>
+  </si>
+  <si>
+    <t>Verified Status</t>
+  </si>
+  <si>
     <t>VerifyText</t>
   </si>
   <si>
@@ -843,18 +996,9 @@
     <t>//*[@id="itemNode_fixed_assets_inquiry_1"]</t>
   </si>
   <si>
-    <t>//*[@id="pt1:_FOr1:1:_FOSritemNode_fixed_assets_inquiry:0:_FOTsr1:0:AP4:r1:0:r2:0:q1:value10::content"]</t>
-  </si>
-  <si>
     <t>SearchTagNumber</t>
   </si>
   <si>
-    <t>//*[@id="pt1:_FOr1:1:_FOSritemNode_fixed_assets_inquiry:0:_FOTsr1:0:AP4:r1:0:r2:0:q1:value50::content"]</t>
-  </si>
-  <si>
-    <t>//a[text()='Fixed Asset']</t>
-  </si>
-  <si>
     <t>//*[contains(@id,'it2::content')]</t>
   </si>
   <si>
@@ -879,112 +1023,199 @@
     <t>Step 78</t>
   </si>
   <si>
+    <t>Check NextBtn</t>
+  </si>
+  <si>
+    <t>Exists</t>
+  </si>
+  <si>
+    <t>AssetInquiryLink_delete</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,'commandButton1')]</t>
+  </si>
+  <si>
+    <t>Step 81</t>
+  </si>
+  <si>
+    <t>Step 82</t>
+  </si>
+  <si>
+    <t>Click Location</t>
+  </si>
+  <si>
+    <t>Clicked location</t>
+  </si>
+  <si>
+    <t>Step 83</t>
+  </si>
+  <si>
+    <t>Step 84</t>
+  </si>
+  <si>
+    <t>Enter the InServiceDate</t>
+  </si>
+  <si>
+    <t>AssetNumber entered</t>
+  </si>
+  <si>
+    <t>InServiceDate entered</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Explicit wait for SerialNumber</t>
+  </si>
+  <si>
+    <t>Enter the SerialNumber</t>
+  </si>
+  <si>
+    <t>Explicit wait for Manufacturer</t>
+  </si>
+  <si>
+    <t>Enter the Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer entered</t>
+  </si>
+  <si>
+    <t>Explicit wait for Model</t>
+  </si>
+  <si>
+    <t>Enter the Model</t>
+  </si>
+  <si>
+    <t>Model entered</t>
+  </si>
+  <si>
+    <t>//input[contains(@name,'inputText4')]</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'inputText1::content')]</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'inputText10::content')]</t>
+  </si>
+  <si>
+    <t>Step 85</t>
+  </si>
+  <si>
+    <t>Step 86</t>
+  </si>
+  <si>
+    <t>Step 87</t>
+  </si>
+  <si>
+    <t>Step 88</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'resultsApplicationsTable:_ATp:t1::db')]/table/tbody/tr/td[2]/div/table/tbody/tr/td[5]</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>TagNo</t>
+  </si>
+  <si>
+    <t>AssetNumber_MAA</t>
+  </si>
+  <si>
+    <t>SerialNo</t>
+  </si>
+  <si>
+    <t>Enter Cost</t>
+  </si>
+  <si>
+    <t>//div[@title='Fixed Assets']</t>
+  </si>
+  <si>
+    <t>//a[contains(@id,'itemNode_fixed_assets_additions')]</t>
+  </si>
+  <si>
+    <t>uncommented for GNB</t>
+  </si>
+  <si>
+    <t>//*[@id="_FOpt1:_FOr1:0:_FONSr2:0:MAnt2:1:ap1:inputText3::content"]</t>
+  </si>
+  <si>
+    <t>//*[@id="_FOpt1:_FOr1:0:_FONSr2:0:MAnt2:1:ap1:inputText5::content"]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'pt1:_UIShome::icon')]</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>WaitForDuration</t>
+  </si>
+  <si>
+    <t>Explicit Wait for Navigator</t>
+  </si>
+  <si>
+    <t>Explicit Waited for Navigator</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'pt1:_UISmmLink::icon')]</t>
+  </si>
+  <si>
+    <t>//a[@title='Asset Inquiry']</t>
+  </si>
+  <si>
+    <t>//*[@id="_FOpt1:_FOr1:0:_FONSr2:0:_FOTsr1:0:AP4:r1:0:r2:0:q1:value10::content"]</t>
+  </si>
+  <si>
+    <t>//*[@id="_FOpt1:_FOr1:0:_FONSr2:0:_FOTsr1:0:AP4:r1:0:r2:0:q1:value50::content"]</t>
+  </si>
+  <si>
     <t>Step 79</t>
   </si>
   <si>
-    <t>Exists</t>
-  </si>
-  <si>
-    <t>AssetInquiryLink_delete</t>
-  </si>
-  <si>
-    <t>//button[contains(@id,'commandButton1')]</t>
-  </si>
-  <si>
     <t>Step 80</t>
   </si>
   <si>
-    <t>Step 81</t>
-  </si>
-  <si>
-    <t>Step 82</t>
-  </si>
-  <si>
-    <t>Step 83</t>
-  </si>
-  <si>
-    <t>Step 84</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>//input[contains(@name,'inputText4')]</t>
-  </si>
-  <si>
-    <t>//input[contains(@id,'inputText1::content')]</t>
-  </si>
-  <si>
-    <t>//input[contains(@id,'inputText10::content')]</t>
-  </si>
-  <si>
-    <t>Step 85</t>
-  </si>
-  <si>
-    <t>Step 86</t>
-  </si>
-  <si>
-    <t>Step 87</t>
-  </si>
-  <si>
-    <t>Step 88</t>
-  </si>
-  <si>
-    <t>Step 89</t>
-  </si>
-  <si>
-    <t>Step 90</t>
-  </si>
-  <si>
-    <t>Step 91</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'resultsApplicationsTable:_ATp:t1::db')]/table/tbody/tr/td[2]/div/table/tbody/tr/td[5]</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>TagNo</t>
-  </si>
-  <si>
-    <t>AssetNumber_MAA</t>
-  </si>
-  <si>
-    <t>SerialNo</t>
-  </si>
-  <si>
-    <t>Step 92</t>
-  </si>
-  <si>
-    <t>Step 93</t>
-  </si>
-  <si>
-    <t>Step 94</t>
-  </si>
-  <si>
-    <t>Step 95</t>
-  </si>
-  <si>
-    <t>Step 96</t>
-  </si>
-  <si>
-    <t>Step 97</t>
-  </si>
-  <si>
-    <t>Step 98</t>
-  </si>
-  <si>
-    <t>Step 99</t>
-  </si>
-  <si>
-    <t>WaitForDuration</t>
-  </si>
-  <si>
-    <t>Common</t>
+    <t>Enter the Units</t>
+  </si>
+  <si>
+    <t>Click on ExpenseOK</t>
+  </si>
+  <si>
+    <t>LongExplicitWait</t>
+  </si>
+  <si>
+    <t>HighestExplicitWait</t>
+  </si>
+  <si>
+    <t>MediumExplicitWait</t>
+  </si>
+  <si>
+    <t>MediumWait</t>
+  </si>
+  <si>
+    <t>LowWait</t>
+  </si>
+  <si>
+    <t>HighWait</t>
+  </si>
+  <si>
+    <t>Change History</t>
+  </si>
+  <si>
+    <t>Xpath changed as per GNB instance</t>
   </si>
 </sst>
 </file>
@@ -1178,6 +1409,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -9401,7 +9633,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -9418,7 +9650,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7827">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17249,167 +17484,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="225">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="209">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19844,32 +19919,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E100"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.81640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.453125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.54296875" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.54296875" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.54296875" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.7265625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.77734375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.44140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.5546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.77734375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="30" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.1796875" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.21875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.21875" style="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="45" style="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="14" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.81640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.1796875" style="9" collapsed="1"/>
+    <col min="13" max="13" width="14.77734375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.21875" style="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="13">
+    <row r="1" spans="1:14" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -19877,7 +19953,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>4</v>
@@ -19892,2793 +19968,2657 @@
         <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="N1" s="8" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="str">
-        <f>_xlfn.CONCAT(G2," ",H2)</f>
-        <v xml:space="preserve">LaunchApplication </v>
-      </c>
-      <c r="E2" s="5" t="str">
-        <f>_xlfn.CONCAT("Performed"," ",G2," ",H2)</f>
-        <v xml:space="preserve">Performed LaunchApplication </v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="M2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="10"/>
+      <c r="D2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>393</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D66" si="0">_xlfn.CONCAT(G3," ",H3)</f>
-        <v>ExplicitWaitType username</v>
-      </c>
-      <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E66" si="1">_xlfn.CONCAT("Performed"," ",G3," ",H3)</f>
-        <v>Performed ExplicitWaitType username</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="5">
-        <v>60</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11" t="s">
-        <v>25</v>
+      <c r="D4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement username</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement username</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="5" customFormat="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText username</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText username</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="M5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText password</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText password</v>
+      <c r="D6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="M6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement signin</v>
-      </c>
-      <c r="E7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement signin</v>
+      <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="M7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="12" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="B8" s="5" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType Home</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Home</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="10"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="B9" s="5" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement Home</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement Home</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="10"/>
+      <c r="J9" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="4" t="s">
-        <v>1</v>
+      <c r="A10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType FixedAssetLink</v>
-      </c>
-      <c r="E10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType FixedAssetLink</v>
+        <v>299</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="J10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="4" t="s">
-        <v>1</v>
+      <c r="A11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement FixedAssetLink</v>
-      </c>
-      <c r="E11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement FixedAssetLink</v>
+        <v>300</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="J11" s="4" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="4" t="s">
-        <v>1</v>
+      <c r="A12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType AssetLink</v>
-      </c>
-      <c r="E12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType AssetLink</v>
+        <v>301</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="4" t="s">
-        <v>1</v>
+      <c r="A13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement AssetLink</v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement AssetLink</v>
+        <v>302</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="4" t="s">
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1">
-      <c r="A14" s="4" t="s">
+    <row r="17" spans="1:14">
+      <c r="A17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType Tasks</v>
-      </c>
-      <c r="E14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Tasks</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="5">
-        <v>60</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>25</v>
+      <c r="J17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="5" customFormat="1">
-      <c r="A15" s="4" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement Tasks</v>
-      </c>
-      <c r="E15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement Tasks</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="I18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType TasksPanelDiv</v>
-      </c>
-      <c r="E16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType TasksPanelDiv</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="5">
-        <v>60</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType AddAssetLink</v>
-      </c>
-      <c r="E17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType AddAssetLink</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement AddAssetLink</v>
-      </c>
-      <c r="E18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement AddAssetLink</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="4"/>
       <c r="M18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="J19" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType SelectBook</v>
-      </c>
-      <c r="E19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType SelectBook</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="4" t="s">
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SelectItemByVisibleText SelectBook</v>
-      </c>
-      <c r="E20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SelectItemByVisibleText SelectBook</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="4" t="s">
+    <row r="28" spans="1:14">
+      <c r="A28" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SendKey SelectBook</v>
-      </c>
-      <c r="E21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SendKey SelectBook</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>121</v>
+    <row r="31" spans="1:14">
+      <c r="A31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>389</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SelectItemByVisibleText AssetType</v>
-      </c>
-      <c r="E22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SelectItemByVisibleText AssetType</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M22" s="4" t="s">
+    <row r="32" spans="1:14">
+      <c r="B32" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SendKey AssetType</v>
-      </c>
-      <c r="E23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SendKey AssetType</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText Category</v>
-      </c>
-      <c r="E24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText Category</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement Description</v>
-      </c>
-      <c r="E25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement Description</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="M25" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="B26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText Description</v>
-      </c>
-      <c r="E26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText Description</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SendKey Description</v>
-      </c>
-      <c r="E27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SendKey Description</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J28" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText Cost</v>
-      </c>
-      <c r="E29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText Cost</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SendKey Cost</v>
-      </c>
-      <c r="E30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SendKey Cost</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J31" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText Units</v>
-      </c>
-      <c r="E32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText Units</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="B33" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SendKey Units</v>
-      </c>
-      <c r="E33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SendKey Units</v>
+        <v>93</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType ExpenseAccount</v>
-      </c>
-      <c r="E34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType ExpenseAccount</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J34" s="12">
-        <v>30</v>
+      <c r="J34" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText ExpenseAccount</v>
-      </c>
-      <c r="E35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText ExpenseAccount</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="J35" s="4"/>
       <c r="M35" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType Location</v>
-      </c>
-      <c r="E36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Location</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J36" s="4">
-        <v>30</v>
+      <c r="I36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="B37" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement Location</v>
-      </c>
-      <c r="E37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement Location</v>
+        <v>153</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" s="4"/>
+        <v>280</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="B38" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText Location</v>
-      </c>
-      <c r="E38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText Location</v>
+        <v>285</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="J38" s="4"/>
       <c r="M38" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>154</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>315</v>
+        <v>26</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J39" s="12">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" s="13" customFormat="1">
+      <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText Cost</v>
-      </c>
-      <c r="E40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText Cost</v>
+        <v>155</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>37</v>
+        <v>330</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13">
+      <c r="A41" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="B41" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SendKey Cost</v>
-      </c>
-      <c r="E41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SendKey Cost</v>
+        <v>156</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>121</v>
+        <v>23</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="M41" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="12" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType Description</v>
-      </c>
-      <c r="E42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Description</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J42" s="4">
-        <v>30</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13">
+      <c r="A43" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="B43" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement Description</v>
-      </c>
-      <c r="E43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement Description</v>
+        <v>286</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J43" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="M43" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" ht="12" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D44" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText Description</v>
-      </c>
-      <c r="E44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText Description</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13">
       <c r="B45" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement ExpenseOk</v>
-      </c>
-      <c r="E45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement ExpenseOk</v>
+        <v>288</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J45" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="M45" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="4" t="s">
-        <v>122</v>
-      </c>
+    <row r="46" spans="1:13" ht="12" customHeight="1">
       <c r="B46" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType NextBtn</v>
-      </c>
-      <c r="E46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType NextBtn</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J46" s="4">
-        <v>20</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" s="13" customFormat="1">
+    <row r="47" spans="1:13">
       <c r="A47" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D47" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Exists NextBtn</v>
-      </c>
-      <c r="E47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed Exists NextBtn</v>
+        <v>225</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" ht="12" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D48" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement NextBtn</v>
-      </c>
-      <c r="E48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement NextBtn</v>
+        <v>226</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="M48" s="4" t="s">
+      <c r="J48" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="12" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5">
-        <v>30</v>
-      </c>
-      <c r="K49" s="5"/>
-      <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText AssetNumber</v>
-      </c>
-      <c r="E50" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText AssetNumber</v>
+        <v>228</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="M50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="12" customHeight="1">
-      <c r="A51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="G51" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5">
-        <v>5</v>
-      </c>
-      <c r="K51" s="5"/>
-      <c r="M51" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="52" spans="1:13">
+      <c r="A52" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="B52" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText Cost</v>
-      </c>
-      <c r="E52" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText Cost</v>
+        <v>230</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>112</v>
+        <v>36</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="12" customHeight="1">
-      <c r="B53" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="G53" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5">
-        <v>5</v>
-      </c>
-      <c r="K53" s="5"/>
-      <c r="M53" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText InServiceDate</v>
-      </c>
-      <c r="E54" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText InServiceDate</v>
+        <v>232</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>210</v>
+        <v>343</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="12" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D55" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType TagNumber</v>
-      </c>
-      <c r="E55" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType TagNumber</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="G55" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>243</v>
+        <v>33</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J55" s="4">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D56" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText TagNumber</v>
-      </c>
-      <c r="E56" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText TagNumber</v>
+        <v>234</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>243</v>
+        <v>36</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>303</v>
+        <v>24</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="M56" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="13" customFormat="1">
+      <c r="A57" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType SerialNumber</v>
-      </c>
-      <c r="E57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType SerialNumber</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="G57" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J57" s="4">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D58" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText SerialNumber</v>
-      </c>
-      <c r="E58" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText SerialNumber</v>
+        <v>322</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>305</v>
+        <v>32</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D59" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType Manufacturer</v>
-      </c>
-      <c r="E59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Manufacturer</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="I59" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K59" s="5"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" s="13" customFormat="1">
+      <c r="A60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="J59" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D60" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText Manufacturer</v>
-      </c>
-      <c r="E60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText Manufacturer</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D61" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType Model</v>
-      </c>
-      <c r="E61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Model</v>
+        <v>325</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>290</v>
+        <v>33</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="I61" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="4">
-        <v>30</v>
-      </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" ht="12" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText Model</v>
-      </c>
-      <c r="E62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText Model</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>290</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="M62" s="5"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType Financials</v>
-      </c>
-      <c r="E63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Financials</v>
+        <v>237</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>229</v>
+        <v>23</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J63" s="14">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="13" customFormat="1">
+    <row r="64" spans="1:13" ht="12" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D64" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement Financials</v>
-      </c>
-      <c r="E64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement Financials</v>
+        <v>303</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G64" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4" t="s">
-        <v>25</v>
+      <c r="J64" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D65" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SelectItemByVisibleText SalvageValType</v>
-      </c>
-      <c r="E65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SelectItemByVisibleText SalvageValType</v>
-      </c>
       <c r="F65" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" s="13" customFormat="1">
       <c r="A66" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D66" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E66" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>304</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>315</v>
+        <v>26</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5">
-        <v>3</v>
-      </c>
-      <c r="K66" s="5"/>
-      <c r="M66" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:14" s="13" customFormat="1">
+    <row r="67" spans="1:14" ht="12" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D67" s="5" t="str">
-        <f t="shared" ref="D67:D100" si="2">_xlfn.CONCAT(G67," ",H67)</f>
-        <v>SetText SalvageValPerctage</v>
-      </c>
-      <c r="E67" s="5" t="str">
-        <f t="shared" ref="E67:E100" si="3">_xlfn.CONCAT("Performed"," ",G67," ",H67)</f>
-        <v>Performed SetText SalvageValPerctage</v>
+        <v>305</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
+        <v>24</v>
+      </c>
       <c r="M67" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D68" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>SetText Comments</v>
-      </c>
-      <c r="E68" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed SetText Comments</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
       <c r="J68" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M68" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K68" s="5"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:14" s="5" customFormat="1">
+      <c r="A69" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="G69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="10"/>
     </row>
-    <row r="69" spans="1:14" ht="12" customHeight="1">
-      <c r="A69" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D69" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E69" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5">
-        <v>3</v>
-      </c>
-      <c r="K69" s="5"/>
-      <c r="M69" s="5"/>
+    <row r="70" spans="1:14" s="5" customFormat="1">
+      <c r="A70" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" s="10"/>
     </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D70" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement SaveDropDown</v>
-      </c>
-      <c r="E70" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement SaveDropDown</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" s="4" t="s">
+    <row r="71" spans="1:14">
+      <c r="A71" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="12" customHeight="1">
-      <c r="A71" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D71" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType Save</v>
-      </c>
-      <c r="E71" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType Save</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="J71" s="4" t="s">
-        <v>41</v>
+        <v>386</v>
+      </c>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D72" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement Save</v>
-      </c>
-      <c r="E72" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement Save</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>25</v>
+      <c r="J72" s="4"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="13" customFormat="1">
+    <row r="73" spans="1:14" s="11" customFormat="1">
       <c r="A73" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType POPUPOK</v>
-      </c>
-      <c r="E73" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType POPUPOK</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="14"/>
       <c r="J73" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
+        <v>390</v>
+      </c>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5" t="s">
+        <v>371</v>
+      </c>
     </row>
-    <row r="74" spans="1:14" ht="12" customHeight="1">
+    <row r="74" spans="1:14" s="11" customFormat="1">
       <c r="A74" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement POPUPOK</v>
-      </c>
-      <c r="E74" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement POPUPOK</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I74" s="14"/>
+      <c r="J74" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="11" customFormat="1">
+      <c r="A75" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I75" s="14"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="11" customFormat="1">
+      <c r="A76" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="B77" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I77" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D75" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E75" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5">
-        <v>3</v>
-      </c>
-      <c r="K75" s="5"/>
-      <c r="M75" s="5"/>
-    </row>
-    <row r="76" spans="1:14" s="5" customFormat="1">
-      <c r="A76" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D76" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType SubmitBtn</v>
-      </c>
-      <c r="E76" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType SubmitBtn</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="10"/>
-    </row>
-    <row r="77" spans="1:14" s="5" customFormat="1">
-      <c r="A77" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D77" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement SubmitBtn</v>
-      </c>
-      <c r="E77" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement SubmitBtn</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" s="4" t="s">
+      <c r="J77" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="M77" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N77" s="10"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D78" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType Home</v>
-      </c>
-      <c r="E78" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType Home</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5" t="s">
-        <v>25</v>
+        <v>327</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" ht="12" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B79" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D79" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement Home</v>
-      </c>
-      <c r="E79" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement Home</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H79" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5" t="s">
-        <v>25</v>
+      <c r="J79" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D80" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType FixedAssetLink</v>
-      </c>
-      <c r="E80" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType FixedAssetLink</v>
+        <v>382</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" ht="12" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D81" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement FixedAssetLink</v>
-      </c>
-      <c r="E81" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement FixedAssetLink</v>
+        <v>383</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G81" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="J81" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="12" customHeight="1">
+    <row r="82" spans="1:13">
       <c r="A82" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D82" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType AssetInquiryLink</v>
-      </c>
-      <c r="E82" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType AssetInquiryLink</v>
+        <v>333</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>84</v>
+        <v>295</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>25</v>
@@ -22686,1071 +22626,527 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D83" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement AssetInquiryLink</v>
-      </c>
-      <c r="E83" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement AssetInquiryLink</v>
+        <v>334</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G83" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="J83" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="13" customFormat="1">
+      <c r="A85" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I83" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>25</v>
+      <c r="H85" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="12" customHeight="1">
-      <c r="A84" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D84" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType SearchCategory</v>
-      </c>
-      <c r="E84" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType SearchCategory</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>41</v>
-      </c>
+    <row r="86" spans="1:13" ht="12" customHeight="1">
+      <c r="A86" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="K86" s="5"/>
+      <c r="M86" s="5"/>
     </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D85" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>SetText SearchCategory</v>
-      </c>
-      <c r="E85" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed SetText SearchCategory</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M85" s="4" t="s">
+    <row r="87" spans="1:13" s="11" customFormat="1">
+      <c r="A87" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="G87" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D86" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType SearchTagNumber</v>
-      </c>
-      <c r="E86" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType SearchTagNumber</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>41</v>
-      </c>
+    <row r="88" spans="1:13" ht="12" customHeight="1">
+      <c r="A88" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="K88" s="5"/>
+      <c r="M88" s="5"/>
     </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D87" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>SetText SearchTagNumber</v>
-      </c>
-      <c r="E87" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed SetText SearchTagNumber</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="M87" s="4" t="s">
+    <row r="89" spans="1:13">
+      <c r="A89" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" s="13" customFormat="1">
-      <c r="A88" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D88" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>SelectItemByVisibleText Book</v>
-      </c>
-      <c r="E88" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed SelectItemByVisibleText Book</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="12" customHeight="1">
-      <c r="A89" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D89" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E89" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5">
-        <v>10</v>
+      <c r="G89" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="1:13" s="11" customFormat="1">
-      <c r="A90" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D90" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement Search</v>
-      </c>
-      <c r="E90" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement Search</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="90" spans="1:13">
+      <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="1:13" ht="12" customHeight="1">
-      <c r="A91" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D91" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E91" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5">
-        <v>10</v>
-      </c>
-      <c r="K91" s="5"/>
-      <c r="M91" s="5"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D92" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>VerifyText TagNumber1</v>
-      </c>
-      <c r="E92" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed VerifyText TagNumber1</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="B93" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D93" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType UsernameClick</v>
-      </c>
-      <c r="E93" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType UsernameClick</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="B94" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D94" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement UsernameClick</v>
-      </c>
-      <c r="E94" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement UsernameClick</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="B95" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D95" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType SignOut</v>
-      </c>
-      <c r="E95" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType SignOut</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="B96" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D96" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement SignOut</v>
-      </c>
-      <c r="E96" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement SignOut</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="2:13">
-      <c r="B97" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D97" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType LogoutConsentDiv</v>
-      </c>
-      <c r="E97" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType LogoutConsentDiv</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="2:13">
-      <c r="B98" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D98" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType ConfirmBtn</v>
-      </c>
-      <c r="E98" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType ConfirmBtn</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="2:13">
-      <c r="B99" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D99" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement ConfirmBtn</v>
-      </c>
-      <c r="E99" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement ConfirmBtn</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J99" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M99" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="2:13">
-      <c r="B100" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D100" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">CloseBrowser </v>
-      </c>
-      <c r="E100" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Performed CloseBrowser </v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="91" spans="1:13">
+      <c r="J91" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M100" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="224" priority="595"/>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="207" priority="548"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="duplicateValues" dxfId="223" priority="584"/>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="206" priority="549"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="550"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="222" priority="537"/>
+  <conditionalFormatting sqref="L46">
+    <cfRule type="duplicateValues" dxfId="204" priority="541"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="221" priority="538"/>
-    <cfRule type="duplicateValues" dxfId="220" priority="539"/>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="202" priority="540"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L53">
-    <cfRule type="duplicateValues" dxfId="219" priority="530"/>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="duplicateValues" dxfId="201" priority="527"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="duplicateValues" dxfId="218" priority="528"/>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="duplicateValues" dxfId="200" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="529"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="217" priority="529"/>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="duplicateValues" dxfId="195" priority="521"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="duplicateValues" dxfId="194" priority="522"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="523"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="duplicateValues" dxfId="192" priority="518"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="duplicateValues" dxfId="191" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="520"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="duplicateValues" dxfId="189" priority="515"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="duplicateValues" dxfId="188" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="517"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="duplicateValues" dxfId="186" priority="512"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="duplicateValues" dxfId="185" priority="513"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="514"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="duplicateValues" dxfId="216" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="506"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="duplicateValues" dxfId="215" priority="517"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="518"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="507"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="508"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="213" priority="513"/>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="duplicateValues" dxfId="180" priority="497"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="212" priority="514"/>
-    <cfRule type="duplicateValues" dxfId="211" priority="515"/>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="duplicateValues" dxfId="179" priority="498"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="499"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="duplicateValues" dxfId="210" priority="510"/>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="duplicateValues" dxfId="177" priority="485"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="duplicateValues" dxfId="209" priority="511"/>
-    <cfRule type="duplicateValues" dxfId="208" priority="512"/>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="duplicateValues" dxfId="176" priority="486"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="487"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59">
+    <cfRule type="duplicateValues" dxfId="174" priority="484"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="duplicateValues" dxfId="172" priority="483"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="duplicateValues" dxfId="171" priority="479"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="duplicateValues" dxfId="170" priority="480"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="481"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62">
+    <cfRule type="duplicateValues" dxfId="168" priority="469"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="duplicateValues" dxfId="166" priority="468"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="duplicateValues" dxfId="165" priority="466"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="duplicateValues" dxfId="164" priority="465"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L68">
+    <cfRule type="duplicateValues" dxfId="163" priority="464"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="duplicateValues" dxfId="161" priority="463"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="duplicateValues" dxfId="160" priority="461"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L88">
+    <cfRule type="duplicateValues" dxfId="159" priority="452"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="duplicateValues" dxfId="157" priority="451"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="duplicateValues" dxfId="156" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="duplicateValues" dxfId="155" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H25">
+    <cfRule type="duplicateValues" dxfId="150" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H25">
+    <cfRule type="duplicateValues" dxfId="149" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:H40">
+    <cfRule type="duplicateValues" dxfId="144" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:H40">
+    <cfRule type="duplicateValues" dxfId="143" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="duplicateValues" dxfId="141" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="duplicateValues" dxfId="140" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="duplicateValues" dxfId="137" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="duplicateValues" dxfId="136" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="duplicateValues" dxfId="134" priority="610"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="duplicateValues" dxfId="133" priority="611"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="612"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83:H84">
+    <cfRule type="duplicateValues" dxfId="131" priority="613"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="duplicateValues" dxfId="130" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="129" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:H49">
+    <cfRule type="duplicateValues" dxfId="127" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:H51">
+    <cfRule type="duplicateValues" dxfId="126" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:H72">
+    <cfRule type="duplicateValues" dxfId="124" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
+    <cfRule type="duplicateValues" dxfId="121" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="duplicateValues" dxfId="119" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="duplicateValues" dxfId="118" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="duplicateValues" dxfId="116" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="duplicateValues" dxfId="115" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="207" priority="507"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="206" priority="508"/>
-    <cfRule type="duplicateValues" dxfId="205" priority="509"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="204" priority="504"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="203" priority="505"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="506"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="201" priority="501"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="200" priority="502"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="503"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="198" priority="495"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="197" priority="496"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="497"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="195" priority="486"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="194" priority="487"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="488"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="192" priority="474"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="191" priority="475"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="476"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L66">
-    <cfRule type="duplicateValues" dxfId="189" priority="473"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="duplicateValues" dxfId="188" priority="471"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="187" priority="472"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="186" priority="468"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="185" priority="469"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="470"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L69">
-    <cfRule type="duplicateValues" dxfId="183" priority="458"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="duplicateValues" dxfId="182" priority="456"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="duplicateValues" dxfId="181" priority="457"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="180" priority="455"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="duplicateValues" dxfId="179" priority="454"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L75">
-    <cfRule type="duplicateValues" dxfId="178" priority="453"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75">
-    <cfRule type="duplicateValues" dxfId="177" priority="451"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="176" priority="452"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="175" priority="450"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L91">
-    <cfRule type="duplicateValues" dxfId="174" priority="441"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91">
-    <cfRule type="duplicateValues" dxfId="173" priority="439"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="duplicateValues" dxfId="172" priority="440"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="171" priority="204"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="170" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="206"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="168" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="167" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="203"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H33">
-    <cfRule type="duplicateValues" dxfId="165" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H33">
-    <cfRule type="duplicateValues" dxfId="164" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="duplicateValues" dxfId="162" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="duplicateValues" dxfId="161" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H47">
-    <cfRule type="duplicateValues" dxfId="159" priority="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H47">
-    <cfRule type="duplicateValues" dxfId="158" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="156" priority="137"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="155" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="duplicateValues" dxfId="153" priority="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="152" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="151" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="149" priority="599"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="148" priority="600"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="601"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86:H87">
-    <cfRule type="duplicateValues" dxfId="146" priority="602"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="145" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="duplicateValues" dxfId="144" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J85">
-    <cfRule type="duplicateValues" dxfId="143" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H56">
-    <cfRule type="duplicateValues" dxfId="142" priority="121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57:H58">
-    <cfRule type="duplicateValues" dxfId="141" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
-    <cfRule type="duplicateValues" dxfId="140" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="139" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="138" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="136" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="135" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="134" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="133" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="132" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="130" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="129" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="128" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="126" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="duplicateValues" dxfId="125" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="duplicateValues" dxfId="124" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="123" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H79">
-    <cfRule type="duplicateValues" dxfId="122" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78">
-    <cfRule type="duplicateValues" dxfId="121" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79">
-    <cfRule type="duplicateValues" dxfId="120" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79">
-    <cfRule type="duplicateValues" dxfId="119" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J80">
-    <cfRule type="duplicateValues" dxfId="118" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J82">
-    <cfRule type="duplicateValues" dxfId="117" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="116" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="115" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="113" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="112" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="110" priority="72"/>
+  <conditionalFormatting sqref="L42">
+    <cfRule type="duplicateValues" dxfId="107" priority="79"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="109" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="74"/>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="duplicateValues" dxfId="105" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="duplicateValues" dxfId="104" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="duplicateValues" dxfId="103" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:H53">
+    <cfRule type="duplicateValues" dxfId="98" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:H55">
+    <cfRule type="duplicateValues" dxfId="97" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:H55">
+    <cfRule type="duplicateValues" dxfId="96" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="duplicateValues" dxfId="78" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="duplicateValues" dxfId="77" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L86">
+    <cfRule type="duplicateValues" dxfId="75" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="duplicateValues" dxfId="73" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44">
+    <cfRule type="duplicateValues" dxfId="72" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="107" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="106" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="71"/>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="duplicateValues" dxfId="69" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
-    <cfRule type="duplicateValues" dxfId="104" priority="68"/>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="duplicateValues" dxfId="68" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="duplicateValues" dxfId="103" priority="66"/>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="duplicateValues" dxfId="63" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="102" priority="67"/>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="duplicateValues" dxfId="62" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="101" priority="57"/>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="duplicateValues" dxfId="60" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="100" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="59"/>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="duplicateValues" dxfId="59" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="98" priority="54"/>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="duplicateValues" dxfId="57" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="97" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59:H60">
-    <cfRule type="duplicateValues" dxfId="95" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H62">
-    <cfRule type="duplicateValues" dxfId="94" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H62">
-    <cfRule type="duplicateValues" dxfId="93" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="duplicateValues" dxfId="91" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J62">
-    <cfRule type="duplicateValues" dxfId="90" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J62">
-    <cfRule type="duplicateValues" dxfId="89" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="duplicateValues" dxfId="87" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J87">
-    <cfRule type="duplicateValues" dxfId="84" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J92">
-    <cfRule type="duplicateValues" dxfId="81" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="duplicateValues" dxfId="78" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="30"/>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="duplicateValues" dxfId="56" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="75" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="74" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L89">
-    <cfRule type="duplicateValues" dxfId="72" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J89">
-    <cfRule type="duplicateValues" dxfId="71" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="duplicateValues" dxfId="70" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="duplicateValues" dxfId="69" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="duplicateValues" dxfId="68" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="67" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="66" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="65" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="63" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="62" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="60" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="59" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="57" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="56" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="duplicateValues" dxfId="53" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="14"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I24 I26 I29 I87 I32 I64 I67:I68 I85 I54 I56 I52 I2 I5 I62 I44:I48 I58 I60 I50 I42 I35:I38 I40" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" sqref="I16 I18 I21 I84 I24 I57 I60:I61 I82 I47 I49 I45 I55 I32 I51 I53 I43 I34 I27:I30 I36:I41 I74" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23762,30 +23158,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.5546875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="100.81640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="100.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.21875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
@@ -23793,1189 +23189,1190 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>379</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>248</v>
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>27</v>
+      <c r="D42" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>27</v>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>27</v>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>27</v>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>27</v>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>27</v>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>268</v>
+        <v>380</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>270</v>
+        <v>381</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="6" customFormat="1">
       <c r="A69" s="2" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>246</v>
+        <v>60</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="5" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="5" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>245</v>
+        <v>368</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
